--- a/DemoMaven/src/test/java/resources/testdata.xlsx
+++ b/DemoMaven/src/test/java/resources/testdata.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B796726-89EB-4522-8906-4F59F7D513B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C109EE82-0792-46BE-A778-C0043E5B9CA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -41,13 +42,47 @@
   </si>
   <si>
     <t>Gtl@123</t>
+  </si>
+  <si>
+    <t>HP_TEST_1</t>
+  </si>
+  <si>
+    <t>HP_TEST_2</t>
+  </si>
+  <si>
+    <t>HP_TEST_3</t>
+  </si>
+  <si>
+    <t>HP_TEST_4</t>
+  </si>
+  <si>
+    <t>HP_TEST_5</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>EAT</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>FAST</t>
+  </si>
+  <si>
+    <t>DPExcelSFDCLoginTCName</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +94,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -371,17 +412,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.7109375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,7 +436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -404,6 +445,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -413,4 +457,97 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182DB346-9273-4D70-AB4A-85A11509C189}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.0" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{1A1D71C6-1521-4F56-A7B4-DD2584E8AEA8}"/>
+    <hyperlink ref="C3:C6" r:id="rId2" display="Gtl@123" xr:uid="{EECCC5D6-0EA7-41FE-A1A5-656BFABAE074}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DemoMaven/src/test/java/resources/testdata.xlsx
+++ b/DemoMaven/src/test/java/resources/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C109EE82-0792-46BE-A778-C0043E5B9CA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DA7DB3-B5B6-4CB4-A5E4-659F4DA8351C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Results</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>gtl_test@thegatewaycorp.com</t>
-  </si>
-  <si>
     <t>Gtl@123</t>
   </si>
   <si>
@@ -59,41 +53,53 @@
     <t>HP_TEST_5</t>
   </si>
   <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>EAT</t>
-  </si>
-  <si>
-    <t>RUN</t>
-  </si>
-  <si>
-    <t>FAST</t>
-  </si>
-  <si>
     <t>DPExcelSFDCLoginTCName</t>
   </si>
   <si>
-    <t>Passed</t>
+    <t>Login2</t>
+  </si>
+  <si>
+    <t>Login3</t>
+  </si>
+  <si>
+    <t>Login4</t>
+  </si>
+  <si>
+    <t>Login5</t>
+  </si>
+  <si>
+    <t>HP_TEST1</t>
+  </si>
+  <si>
+    <t>Login_1</t>
+  </si>
+  <si>
+    <t>Login_2</t>
+  </si>
+  <si>
+    <t>Login_3</t>
+  </si>
+  <si>
+    <t>HP_TEST2</t>
+  </si>
+  <si>
+    <t>HP_TEST3</t>
+  </si>
+  <si>
+    <t>Gtl@124</t>
+  </si>
+  <si>
+    <t>Gtl@125</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,16 +128,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,16 +413,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.7109375" collapsed="false"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -438,22 +441,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{4C21F74A-62F4-47FB-9B31-5969AA4DB5AD}"/>
+    <hyperlink ref="B2" r:id="rId1" display="gtl_test@thegatewaycorp.com" xr:uid="{4C21F74A-62F4-47FB-9B31-5969AA4DB5AD}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{42912E5C-F372-4D07-8145-25E61DC7CB23}"/>
+    <hyperlink ref="B3:B4" r:id="rId3" display="gtl_test@thegatewaycorp.com" xr:uid="{2C48287E-9824-4383-8515-F05E8D762260}"/>
+    <hyperlink ref="C3:C4" r:id="rId4" display="Gtl@123" xr:uid="{7B938C89-DCF1-4EC1-A1C4-AF040602CBF8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -463,14 +488,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182DB346-9273-4D70-AB4A-85A11509C189}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.0" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="false"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -489,61 +514,61 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{1A1D71C6-1521-4F56-A7B4-DD2584E8AEA8}"/>
     <hyperlink ref="C3:C6" r:id="rId2" display="Gtl@123" xr:uid="{EECCC5D6-0EA7-41FE-A1A5-656BFABAE074}"/>
